--- a/Stores.xlsx
+++ b/Stores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEZ\Desktop\Parviflora Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c68fd505dbc210f6/Docs/GitHub/Excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A80D41-3FBB-4FDE-AD01-F060114CD24C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{57A80D41-3FBB-4FDE-AD01-F060114CD24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{847F20DD-ED49-432D-A1F7-BC1B18E1513B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{B785946E-57AD-4B1B-BC93-2760CDD1D782}"/>
+    <workbookView xWindow="34485" yWindow="900" windowWidth="17280" windowHeight="8970" xr2:uid="{B785946E-57AD-4B1B-BC93-2760CDD1D782}"/>
   </bookViews>
   <sheets>
     <sheet name="Store" sheetId="1" r:id="rId1"/>
@@ -480,204 +480,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2525D4-E098-4A13-B28B-B26C80DA6E08}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="1024" max="1024" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="1280" max="1280" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="1536" max="1536" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="1792" max="1792" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2048" max="2048" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2304" max="2304" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2560" max="2560" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2816" max="2816" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3072" max="3072" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3328" max="3328" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3584" max="3584" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3840" max="3840" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4096" max="4096" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4352" max="4352" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4608" max="4608" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4864" max="4864" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5120" max="5120" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5376" max="5376" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5632" max="5632" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5888" max="5888" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6144" max="6144" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6400" max="6400" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6656" max="6656" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6912" max="6912" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7168" max="7168" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7424" max="7424" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7680" max="7680" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7936" max="7936" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8192" max="8192" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8448" max="8448" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8704" max="8704" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8960" max="8960" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9216" max="9216" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9472" max="9472" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9728" max="9728" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9984" max="9984" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10240" max="10240" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10496" max="10496" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10752" max="10752" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11008" max="11008" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11264" max="11264" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11520" max="11520" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11776" max="11776" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12032" max="12032" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12288" max="12288" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12544" max="12544" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12800" max="12800" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13056" max="13056" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13312" max="13312" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13568" max="13568" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13824" max="13824" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="14080" max="14080" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="14336" max="14336" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="14592" max="14592" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="14848" max="14848" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15104" max="15104" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15360" max="15360" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15616" max="15616" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15872" max="15872" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="16128" max="16128" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>110</v>
       </c>
@@ -693,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>170</v>
       </c>
@@ -701,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>390</v>
       </c>
@@ -709,7 +711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>400</v>
       </c>
@@ -717,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>410</v>
       </c>
@@ -725,7 +727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>420</v>
       </c>
@@ -733,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>430</v>
       </c>
@@ -741,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>440</v>
       </c>
@@ -749,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>510</v>
       </c>
@@ -757,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>150</v>
       </c>
@@ -765,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>210</v>
       </c>
@@ -773,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>240</v>
       </c>
@@ -781,7 +783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>350</v>
       </c>
@@ -789,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>200</v>
       </c>
@@ -797,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>260</v>
       </c>
@@ -805,7 +807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>330</v>
       </c>
@@ -813,7 +815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>540</v>
       </c>
@@ -821,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>550</v>
       </c>
@@ -829,7 +831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>570</v>
       </c>
@@ -837,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>580</v>
       </c>
@@ -845,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>590</v>
       </c>
@@ -853,7 +855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>270</v>
       </c>
@@ -861,7 +863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>320</v>
       </c>
@@ -869,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>340</v>
       </c>
@@ -877,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>500</v>
       </c>
@@ -885,7 +887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>360</v>
       </c>
@@ -893,7 +895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>530</v>
       </c>
